--- a/Geometry.xlsx
+++ b/Geometry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>Point</t>
   </si>
@@ -86,13 +86,24 @@
   <si>
     <t>Intersectings</t>
   </si>
+  <si>
+    <t>Containinigs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,15 +157,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F16"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G16">
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" name="Properties"/>
     <tableColumn id="2" name="Area"/>
     <tableColumn id="3" name="BoundingBox"/>
     <tableColumn id="4" name="NearestToPoint"/>
     <tableColumn id="5" name="Interpolation"/>
     <tableColumn id="6" name="Length"/>
+    <tableColumn id="7" name="Containinigs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -165,8 +180,8 @@
   <tableColumns count="16">
     <tableColumn id="1" name="Intersectings"/>
     <tableColumn id="2" name="Point"/>
+    <tableColumn id="4" name="Line"/>
     <tableColumn id="3" name="Ray"/>
-    <tableColumn id="4" name="Line"/>
     <tableColumn id="5" name="LineSegment"/>
     <tableColumn id="6" name="Triangle"/>
     <tableColumn id="7" name="Rectangle"/>
@@ -185,13 +200,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:P16" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:P16" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:P16"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Intersections"/>
     <tableColumn id="2" name="Point"/>
+    <tableColumn id="4" name="Line"/>
     <tableColumn id="3" name="Ray"/>
-    <tableColumn id="4" name="Line"/>
     <tableColumn id="5" name="LineSegment"/>
     <tableColumn id="6" name="Triangle"/>
     <tableColumn id="7" name="Rectangle"/>
@@ -494,19 +509,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="64.5">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="64.5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -525,8 +540,11 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,8 +563,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -565,8 +586,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -585,8 +609,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -597,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -605,8 +632,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -625,8 +655,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -645,8 +678,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -665,8 +701,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -685,8 +724,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -697,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -705,8 +747,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -725,8 +770,11 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -745,8 +793,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -765,8 +816,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -785,8 +839,11 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -805,8 +862,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -825,9 +885,12 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F16">
+  <conditionalFormatting sqref="B2:G16">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -848,7 +911,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -912,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1659,7 +1722,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:P16">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1680,7 +1743,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1744,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1753,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1797,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1890,11 +1953,11 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2190,7 +2253,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2240,7 +2303,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -2290,7 +2353,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -2491,7 +2554,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:P16">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2500,6 +2563,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
